--- a/output/ITAÚ_29259742000118.xlsx
+++ b/output/ITAÚ_29259742000118.xlsx
@@ -724,10 +724,10 @@
         <v>44165</v>
       </c>
       <c r="B31">
-        <v>-0.01232810000000006</v>
+        <v>-0.01404919999999998</v>
       </c>
       <c r="C31">
-        <v>0.05822185812630787</v>
+        <v>0.05637781898737804</v>
       </c>
     </row>
   </sheetData>

--- a/output/ITAÚ_29259742000118.xlsx
+++ b/output/ITAÚ_29259742000118.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ITAÚ LONG BIAS MULTIMERCADO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43281</v>
       </c>
@@ -411,323 +405,236 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43312</v>
       </c>
       <c r="B3">
         <v>0.02092729999999987</v>
       </c>
-      <c r="C3">
-        <v>0.02092729999999987</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43343</v>
       </c>
       <c r="B4">
-        <v>0.01685269999999983</v>
-      </c>
-      <c r="C4">
         <v>-0.00399107752334571</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43373</v>
       </c>
       <c r="B5">
-        <v>-0.001649400000000023</v>
-      </c>
-      <c r="C5">
         <v>-0.01819545741482509</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43404</v>
       </c>
       <c r="B6">
-        <v>0.05285469999999992</v>
-      </c>
-      <c r="C6">
         <v>0.05459414758702996</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43434</v>
       </c>
       <c r="B7">
-        <v>0.06883300000000014</v>
-      </c>
-      <c r="C7">
         <v>0.0151761681835112</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43465</v>
       </c>
       <c r="B8">
-        <v>0.1544871999999999</v>
-      </c>
-      <c r="C8">
         <v>0.08013805711462862</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43496</v>
       </c>
       <c r="B9">
-        <v>0.2256940000000001</v>
-      </c>
-      <c r="C9">
         <v>0.06167829318506102</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43524</v>
       </c>
       <c r="B10">
-        <v>0.2165222</v>
-      </c>
-      <c r="C10">
         <v>-0.007482944356421828</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43555</v>
       </c>
       <c r="B11">
-        <v>0.2033434000000001</v>
-      </c>
-      <c r="C11">
         <v>-0.01083317673939688</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43585</v>
       </c>
       <c r="B12">
-        <v>0.1936583000000001</v>
-      </c>
-      <c r="C12">
         <v>-0.008048492225909865</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43616</v>
       </c>
       <c r="B13">
-        <v>0.2175354999999999</v>
-      </c>
-      <c r="C13">
         <v>0.0200033795266199</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43646</v>
       </c>
       <c r="B14">
-        <v>0.2586903</v>
-      </c>
-      <c r="C14">
         <v>0.03380172487783728</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43677</v>
       </c>
       <c r="B15">
-        <v>0.3129282999999998</v>
-      </c>
-      <c r="C15">
         <v>0.04309082226183825</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43708</v>
       </c>
       <c r="B16">
-        <v>0.3442813</v>
-      </c>
-      <c r="C16">
         <v>0.02388020731977525</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43738</v>
       </c>
       <c r="B17">
-        <v>0.2873725</v>
-      </c>
-      <c r="C17">
         <v>-0.04233399661216741</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43769</v>
       </c>
       <c r="B18">
-        <v>0.2742872999999999</v>
-      </c>
-      <c r="C18">
         <v>-0.01016426869456988</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43799</v>
       </c>
       <c r="B19">
-        <v>0.3409157999999999</v>
-      </c>
-      <c r="C19">
         <v>0.05228687439637825</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43830</v>
       </c>
       <c r="B20">
-        <v>0.4423946999999999</v>
-      </c>
-      <c r="C20">
         <v>0.07567880101047364</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43861</v>
       </c>
       <c r="B21">
-        <v>0.5297325000000002</v>
-      </c>
-      <c r="C21">
         <v>0.06055055526757003</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43890</v>
       </c>
       <c r="B22">
-        <v>0.4498651</v>
-      </c>
-      <c r="C22">
         <v>-0.05221004325919731</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43921</v>
       </c>
       <c r="B23">
-        <v>0.0207691000000001</v>
-      </c>
-      <c r="C23">
         <v>-0.2959558099577677</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43951</v>
       </c>
       <c r="B24">
-        <v>-0.02124159999999997</v>
-      </c>
-      <c r="C24">
         <v>-0.04115592840731563</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43982</v>
       </c>
       <c r="B25">
-        <v>-0.03221740000000006</v>
-      </c>
-      <c r="C25">
         <v>-0.01121400337407075</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>44012</v>
       </c>
       <c r="B26">
-        <v>0.04941329999999988</v>
-      </c>
-      <c r="C26">
         <v>0.08434817902285063</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>44043</v>
       </c>
       <c r="B27">
-        <v>0.08564480000000008</v>
-      </c>
-      <c r="C27">
         <v>0.03452548200027605</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44074</v>
       </c>
       <c r="B28">
-        <v>0.05192210000000008</v>
-      </c>
-      <c r="C28">
         <v>-0.03106236957059993</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44104</v>
       </c>
       <c r="B29">
-        <v>-0.02880230000000006</v>
-      </c>
-      <c r="C29">
         <v>-0.07673990307837442</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44135</v>
       </c>
       <c r="B30">
-        <v>-0.06666839999999996</v>
-      </c>
-      <c r="C30">
         <v>-0.03898907503590665</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>44165</v>
       </c>
       <c r="B31">
-        <v>-0.01404919999999998</v>
-      </c>
-      <c r="C31">
-        <v>0.05637781898737804</v>
+        <v>0.04680233691862568</v>
       </c>
     </row>
   </sheetData>
